--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -5,29 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/PycharmProjects/jikeInterface/testFile/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE589750-E6C0-DE42-919B-B734CEFD5360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056563D-0FFF-1044-AFE5-264F150C50B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="4380" windowWidth="28820" windowHeight="14140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="4780" windowWidth="28820" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="smscode" sheetId="7" r:id="rId2"/>
-    <sheet name="test" sheetId="8" r:id="rId3"/>
+    <sheet name="usersprofile" sheetId="9" r:id="rId3"/>
     <sheet name="register" sheetId="2" r:id="rId4"/>
-    <sheet name="registerquick" sheetId="3" r:id="rId5"/>
-    <sheet name="accountSetting" sheetId="4" r:id="rId6"/>
-    <sheet name="updatePassword" sheetId="5" r:id="rId7"/>
-    <sheet name="addAddress" sheetId="6" r:id="rId8"/>
+    <sheet name="test" sheetId="8" r:id="rId5"/>
+    <sheet name="registerquick" sheetId="3" r:id="rId6"/>
+    <sheet name="accountSetting" sheetId="4" r:id="rId7"/>
+    <sheet name="updatePassword" sheetId="5" r:id="rId8"/>
+    <sheet name="addAddress" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="200">
   <si>
     <t>case_name</t>
   </si>
@@ -105,9 +106,6 @@
   </si>
   <si>
     <t>confirmpwd</t>
-  </si>
-  <si>
-    <t>register</t>
   </si>
   <si>
     <t>interface4@163.com</t>
@@ -610,6 +608,58 @@
   <si>
     <t>00000000001</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_NameNull</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5440A3C1-DB3B-4DA4-B149-AD03B2E13C32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vic小叶子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>即刻用户_</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -751,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +866,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1132,13 +1188,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1149,45 +1205,45 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>176</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1198,11 +1254,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1216,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E64DEE-5874-B54A-9973-FA1F0126CE99}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1238,42 +1294,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="E1" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="E2" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1284,38 +1340,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466FC28-1020-8A48-9D96-22B0BF87F775}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05733C72-9716-7D40-94A6-94F67B2C86BC}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="17.1640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="13"/>
+    <col min="3" max="3" width="38.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:5">
+      <c r="A1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1416,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1373,17 +1460,17 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -1403,7 +1490,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1412,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
@@ -1424,24 +1511,24 @@
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -1456,12 +1543,12 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1487,7 +1574,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1496,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -1513,16 +1600,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
@@ -1534,15 +1621,15 @@
         <v>16</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1551,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -1563,12 +1650,12 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1577,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
@@ -1589,15 +1676,15 @@
         <v>16</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1640,6 +1727,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466FC28-1020-8A48-9D96-22B0BF87F775}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1683,16 +1811,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>10</v>
@@ -1706,16 +1834,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>16</v>
@@ -1724,12 +1852,12 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1749,7 +1877,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1758,21 +1886,21 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1781,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>16</v>
@@ -1805,7 +1933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -1833,19 +1961,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1859,28 +1987,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>10</v>
@@ -1894,28 +2022,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>16</v>
@@ -1924,12 +2052,12 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1938,16 +2066,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>16</v>
@@ -1956,12 +2084,12 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1973,13 +2101,13 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>10</v>
@@ -1993,7 +2121,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2005,13 +2133,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>10</v>
@@ -2025,28 +2153,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>16</v>
@@ -2055,12 +2183,12 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -2072,13 +2200,13 @@
         <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>16</v>
@@ -2087,12 +2215,12 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2104,16 +2232,16 @@
         <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>16</v>
@@ -2122,12 +2250,12 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2139,13 +2267,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>16</v>
@@ -2154,33 +2282,33 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>16</v>
@@ -2194,7 +2322,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -2203,16 +2331,16 @@
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>16</v>
@@ -2230,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2258,13 +2386,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2278,22 +2406,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>16</v>
@@ -2307,7 +2435,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2316,10 +2444,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>16</v>
@@ -2328,12 +2456,12 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2345,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2359,7 +2487,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2371,24 +2499,24 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" t="s">
         <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2400,24 +2528,24 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2429,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2438,27 +2566,27 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2472,7 +2600,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2484,24 +2612,24 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
         <v>99</v>
-      </c>
-      <c r="I9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2510,10 +2638,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2527,7 +2655,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2539,10 +2667,10 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>10</v>
@@ -2560,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -2588,49 +2716,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -2644,52 +2772,52 @@
     </row>
     <row r="2" spans="1:21" ht="16">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>15</v>
@@ -2709,7 +2837,7 @@
     </row>
     <row r="3" spans="1:21" ht="16">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2719,40 +2847,40 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>15</v>
@@ -2764,15 +2892,15 @@
         <v>16</v>
       </c>
       <c r="T3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" t="s">
         <v>130</v>
-      </c>
-      <c r="U3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2781,41 +2909,41 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>15</v>
@@ -2827,15 +2955,15 @@
         <v>16</v>
       </c>
       <c r="T4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" t="s">
         <v>133</v>
-      </c>
-      <c r="U4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2844,41 +2972,41 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>15</v>
@@ -2890,15 +3018,15 @@
         <v>16</v>
       </c>
       <c r="T5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" t="s">
         <v>136</v>
-      </c>
-      <c r="U5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2907,41 +3035,41 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>15</v>
@@ -2953,60 +3081,60 @@
         <v>16</v>
       </c>
       <c r="T6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
         <v>139</v>
-      </c>
-      <c r="U6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16">
       <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="H7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>15</v>
@@ -3018,15 +3146,15 @@
         <v>16</v>
       </c>
       <c r="T7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" t="s">
         <v>139</v>
-      </c>
-      <c r="U7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3035,41 +3163,41 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>15</v>
@@ -3081,60 +3209,60 @@
         <v>16</v>
       </c>
       <c r="T8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U8" t="s">
         <v>144</v>
-      </c>
-      <c r="U8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="J9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>15</v>
@@ -3146,15 +3274,15 @@
         <v>16</v>
       </c>
       <c r="T9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U9" t="s">
         <v>144</v>
-      </c>
-      <c r="U9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3163,41 +3291,41 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>15</v>
@@ -3209,60 +3337,60 @@
         <v>16</v>
       </c>
       <c r="T10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="U10" t="s">
         <v>149</v>
-      </c>
-      <c r="U10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16">
       <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>15</v>
@@ -3274,15 +3402,15 @@
         <v>16</v>
       </c>
       <c r="T11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="U11" t="s">
         <v>149</v>
-      </c>
-      <c r="U11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -3291,41 +3419,41 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>15</v>
@@ -3337,15 +3465,15 @@
         <v>16</v>
       </c>
       <c r="T12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" t="s">
         <v>154</v>
-      </c>
-      <c r="U12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -3354,41 +3482,41 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>15</v>
@@ -3400,60 +3528,60 @@
         <v>16</v>
       </c>
       <c r="T13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" t="s">
         <v>157</v>
-      </c>
-      <c r="U13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16">
       <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="O14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>15</v>
@@ -3465,15 +3593,15 @@
         <v>16</v>
       </c>
       <c r="T14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" t="s">
         <v>157</v>
-      </c>
-      <c r="U14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -3482,41 +3610,41 @@
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>15</v>
@@ -3528,60 +3656,60 @@
         <v>16</v>
       </c>
       <c r="T15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U15" t="s">
         <v>162</v>
-      </c>
-      <c r="U15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16">
       <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>164</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>165</v>
-      </c>
       <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>15</v>
@@ -3601,7 +3729,7 @@
     </row>
     <row r="17" spans="1:21" ht="16">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -3610,43 +3738,43 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>15</v>
@@ -3658,57 +3786,57 @@
         <v>16</v>
       </c>
       <c r="T17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" t="s">
         <v>99</v>
-      </c>
-      <c r="U17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>15</v>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056563D-0FFF-1044-AFE5-264F150C50B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C64F94-D08B-C04D-84BB-D13E96C832C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="4780" windowWidth="28820" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="5820" windowWidth="28820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="206">
   <si>
     <t>case_name</t>
   </si>
@@ -659,6 +659,30 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号/密码不正确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>403</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,12 +839,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -847,9 +865,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +887,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,115 +1183,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="13" customWidth="1"/>
-    <col min="4" max="5" width="14.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="14.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9" style="11"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
+      <c r="F4" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>169</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1278,57 +1368,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="13"/>
-    <col min="5" max="5" width="19.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="21.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="11"/>
+    <col min="5" max="5" width="19.6640625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1343,65 +1433,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05733C72-9716-7D40-94A6-94F67B2C86BC}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="13"/>
-    <col min="3" max="3" width="38.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="17.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="38.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1460,28 +1550,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -1495,22 +1585,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I3" t="s">
@@ -1524,22 +1614,22 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I4" t="s">
@@ -1553,19 +1643,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
@@ -1579,19 +1669,19 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
@@ -1605,22 +1695,22 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
@@ -1634,19 +1724,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
@@ -1660,22 +1750,22 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I9" t="s">
@@ -1689,22 +1779,22 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
@@ -1736,28 +1826,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1816,16 +1906,16 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -1839,16 +1929,16 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
@@ -1862,13 +1952,13 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -1882,16 +1972,16 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
@@ -1905,16 +1995,16 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
@@ -1992,28 +2082,28 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -2027,28 +2117,28 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
@@ -2062,25 +2152,25 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
@@ -2094,25 +2184,25 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
@@ -2126,25 +2216,25 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
@@ -2158,13 +2248,13 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F7" t="s">
@@ -2173,13 +2263,13 @@
       <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
@@ -2193,25 +2283,25 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
@@ -2225,28 +2315,28 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
@@ -2260,25 +2350,25 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
@@ -2295,25 +2385,25 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K11" t="s">
@@ -2327,25 +2417,25 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K12" t="s">
@@ -2411,10 +2501,10 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E2" t="s">
@@ -2423,10 +2513,10 @@
       <c r="F2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
@@ -2440,7 +2530,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
@@ -2449,10 +2539,10 @@
       <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I3" t="s">
@@ -2466,19 +2556,19 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I4" t="s">
@@ -2492,10 +2582,10 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
@@ -2504,10 +2594,10 @@
       <c r="F5" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I5" t="s">
@@ -2521,10 +2611,10 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
@@ -2533,10 +2623,10 @@
       <c r="F6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I6" t="s">
@@ -2550,19 +2640,19 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I7" t="s">
@@ -2579,7 +2669,7 @@
       <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
@@ -2588,10 +2678,10 @@
       <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
@@ -2605,10 +2695,10 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
@@ -2617,10 +2707,10 @@
       <c r="F9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I9" t="s">
@@ -2634,7 +2724,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -2643,10 +2733,10 @@
       <c r="F10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
@@ -2660,10 +2750,10 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
@@ -2672,10 +2762,10 @@
       <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
@@ -2777,7 +2867,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2789,10 +2879,10 @@
       <c r="F2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2807,10 +2897,10 @@
       <c r="L2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -2819,16 +2909,16 @@
       <c r="P2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
@@ -2842,7 +2932,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
@@ -2852,10 +2942,10 @@
       <c r="F3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2870,10 +2960,10 @@
       <c r="L3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -2882,16 +2972,16 @@
       <c r="P3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="7" t="s">
+      <c r="R3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>129</v>
       </c>
       <c r="U3" t="s">
@@ -2905,7 +2995,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2915,10 +3005,10 @@
       <c r="F4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2933,10 +3023,10 @@
       <c r="L4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -2945,16 +3035,16 @@
       <c r="P4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="R4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>132</v>
       </c>
       <c r="U4" t="s">
@@ -2968,7 +3058,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2978,10 +3068,10 @@
         <v>117</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2996,10 +3086,10 @@
       <c r="L5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -3008,16 +3098,16 @@
       <c r="P5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="7" t="s">
+      <c r="R5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>135</v>
       </c>
       <c r="U5" t="s">
@@ -3031,7 +3121,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3044,7 +3134,7 @@
         <v>118</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -3059,10 +3149,10 @@
       <c r="L6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -3071,16 +3161,16 @@
       <c r="P6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="7" t="s">
+      <c r="R6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>138</v>
       </c>
       <c r="U6" t="s">
@@ -3094,7 +3184,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3109,7 +3199,7 @@
       <c r="G7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3124,10 +3214,10 @@
       <c r="L7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -3136,16 +3226,16 @@
       <c r="P7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="7" t="s">
+      <c r="R7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>138</v>
       </c>
       <c r="U7" t="s">
@@ -3159,7 +3249,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3171,10 +3261,10 @@
       <c r="F8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I8" s="3"/>
@@ -3187,10 +3277,10 @@
       <c r="L8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -3199,16 +3289,16 @@
       <c r="P8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="7" t="s">
+      <c r="R8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>143</v>
       </c>
       <c r="U8" t="s">
@@ -3222,7 +3312,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3234,10 +3324,10 @@
       <c r="F9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -3252,10 +3342,10 @@
       <c r="L9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -3264,16 +3354,16 @@
       <c r="P9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="7" t="s">
+      <c r="R9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>143</v>
       </c>
       <c r="U9" t="s">
@@ -3287,7 +3377,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3299,10 +3389,10 @@
       <c r="F10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3315,10 +3405,10 @@
       <c r="L10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -3327,16 +3417,16 @@
       <c r="P10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="7" t="s">
+      <c r="R10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="U10" t="s">
@@ -3350,7 +3440,7 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -3362,10 +3452,10 @@
       <c r="F11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3380,10 +3470,10 @@
       <c r="L11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -3392,16 +3482,16 @@
       <c r="P11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="7" t="s">
+      <c r="R11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>148</v>
       </c>
       <c r="U11" t="s">
@@ -3415,7 +3505,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3427,10 +3517,10 @@
       <c r="F12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -3443,10 +3533,10 @@
         <v>123</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -3455,16 +3545,16 @@
       <c r="P12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="7" t="s">
+      <c r="R12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>153</v>
       </c>
       <c r="U12" t="s">
@@ -3478,7 +3568,7 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3490,10 +3580,10 @@
       <c r="F13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -3509,7 +3599,7 @@
         <v>124</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -3518,16 +3608,16 @@
       <c r="P13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="7" t="s">
+      <c r="R13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="5" t="s">
         <v>156</v>
       </c>
       <c r="U13" t="s">
@@ -3541,7 +3631,7 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3553,10 +3643,10 @@
       <c r="F14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -3571,10 +3661,10 @@
       <c r="L14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -3583,16 +3673,16 @@
       <c r="P14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="7" t="s">
+      <c r="R14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>156</v>
       </c>
       <c r="U14" t="s">
@@ -3606,7 +3696,7 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3618,10 +3708,10 @@
       <c r="F15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -3636,7 +3726,7 @@
       <c r="L15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3"/>
@@ -3646,16 +3736,16 @@
       <c r="P15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="7" t="s">
+      <c r="R15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="5" t="s">
         <v>161</v>
       </c>
       <c r="U15" t="s">
@@ -3681,10 +3771,10 @@
       <c r="F16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -3699,10 +3789,10 @@
       <c r="L16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -3711,16 +3801,16 @@
       <c r="P16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="7" t="s">
+      <c r="R16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="U16" t="s">
@@ -3734,7 +3824,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3746,10 +3836,10 @@
       <c r="F17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -3764,10 +3854,10 @@
       <c r="L17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -3776,16 +3866,16 @@
       <c r="P17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="7" t="s">
+      <c r="R17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>98</v>
       </c>
       <c r="U17" t="s">
@@ -3808,10 +3898,10 @@
       <c r="F18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -3826,10 +3916,10 @@
       <c r="L18" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="7" t="s">
         <v>125</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -3838,16 +3928,16 @@
       <c r="P18" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="7" t="s">
+      <c r="R18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="U18" t="s">

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C64F94-D08B-C04D-84BB-D13E96C832C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1089482-4CB4-2D4D-9D3F-49F2D596A42C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="5820" windowWidth="28820" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="5820" windowWidth="28820" windowHeight="14140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="smscode" sheetId="7" r:id="rId2"/>
     <sheet name="usersprofile" sheetId="9" r:id="rId3"/>
-    <sheet name="register" sheetId="2" r:id="rId4"/>
-    <sheet name="test" sheetId="8" r:id="rId5"/>
-    <sheet name="registerquick" sheetId="3" r:id="rId6"/>
-    <sheet name="accountSetting" sheetId="4" r:id="rId7"/>
-    <sheet name="updatePassword" sheetId="5" r:id="rId8"/>
-    <sheet name="addAddress" sheetId="6" r:id="rId9"/>
+    <sheet name="registerusers" sheetId="10" r:id="rId4"/>
+    <sheet name="register" sheetId="2" r:id="rId5"/>
+    <sheet name="test" sheetId="8" r:id="rId6"/>
+    <sheet name="registerquick" sheetId="3" r:id="rId7"/>
+    <sheet name="accountSetting" sheetId="4" r:id="rId8"/>
+    <sheet name="updatePassword" sheetId="5" r:id="rId9"/>
+    <sheet name="addAddress" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="208">
   <si>
     <t>case_name</t>
   </si>
@@ -683,6 +684,13 @@
   </si>
   <si>
     <t>403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterUsers</t>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +698,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +764,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FFA5C261"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -825,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,6 +919,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1355,6 +1372,1226 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="U8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="U9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="U10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="U11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="16">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="16">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
@@ -1434,7 +2671,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1498,10 +2735,57 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7679051-0DCD-534D-BF43-B26C72F5C339}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1816,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B466FC28-1020-8A48-9D96-22B0BF87F775}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1857,7 +3141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2023,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -2448,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2776,1224 +4060,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="16">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="16">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="U7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="16">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16">
-      <c r="A10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="U10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="16">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="U11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="U12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="16">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="U13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="16">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="U14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="U15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="16">
-      <c r="A16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="16">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="16">
-      <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="16">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" ht="16">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" ht="16">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>
--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1089482-4CB4-2D4D-9D3F-49F2D596A42C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3E70-E4BA-8F40-8F49-4401309CA81D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="5820" windowWidth="28820" windowHeight="14140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="smscode" sheetId="7" r:id="rId2"/>
-    <sheet name="usersprofile" sheetId="9" r:id="rId3"/>
-    <sheet name="registerusers" sheetId="10" r:id="rId4"/>
+    <sheet name="usersProfile" sheetId="9" r:id="rId3"/>
+    <sheet name="usersRegister" sheetId="10" r:id="rId4"/>
     <sheet name="register" sheetId="2" r:id="rId5"/>
     <sheet name="test" sheetId="8" r:id="rId6"/>
     <sheet name="registerquick" sheetId="3" r:id="rId7"/>
@@ -687,10 +687,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RegisterUsers</t>
-  </si>
-  <si>
     <t>post</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerUsers</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2671,7 +2672,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2744,12 +2745,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="17" style="11" customWidth="1"/>
@@ -2770,10 +2771,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>174</v>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vic/jike-interface-test/testFile/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A3E70-E4BA-8F40-8F49-4401309CA81D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80033E7-783A-AD4D-9F8B-4715E5504672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="5820" windowWidth="28820" windowHeight="14140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="5820" windowWidth="28820" windowHeight="14140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -631,14 +631,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_NameNull</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Get</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -692,6 +684,14 @@
   </si>
   <si>
     <t>registerUsers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>usersProfile</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>usersProfile_usernameNull</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1234,13 +1234,13 @@
         <v>168</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>200</v>
-      </c>
       <c r="H1" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1263,10 +1263,10 @@
         <v>174</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1286,13 +1286,13 @@
         <v>170</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>201</v>
-      </c>
       <c r="H3" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1312,13 +1312,13 @@
         <v>170</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1336,13 +1336,13 @@
         <v>169</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>201</v>
-      </c>
       <c r="H5" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1360,13 +1360,13 @@
         <v>169</v>
       </c>
       <c r="F6" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>201</v>
-      </c>
       <c r="H6" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2671,13 +2671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05733C72-9716-7D40-94A6-94F67B2C86BC}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="28" style="11" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="11"/>
     <col min="3" max="3" width="38.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
@@ -2698,21 +2698,21 @@
         <v>191</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>174</v>
@@ -2720,17 +2720,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7679051-0DCD-534D-BF43-B26C72F5C339}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2766,15 +2766,15 @@
         <v>189</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>174</v>
